--- a/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_1998_Seo_and_Cheong_paper02_severn.xlsx
+++ b/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_1998_Seo_and_Cheong_paper02_severn.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>Project Name</t>
   </si>
@@ -391,12 +391,6 @@
     <t>Seo and Cheong (1998)</t>
   </si>
   <si>
-    <t>Li et al. (1998)</t>
-  </si>
-  <si>
-    <t>Deng et al. (2001)</t>
-  </si>
-  <si>
     <t>Kashefipour and Falconer (2002)</t>
   </si>
   <si>
@@ -415,15 +409,6 @@
     <t>Zeng and Huai (2014)</t>
   </si>
   <si>
-    <t xml:space="preserve">Disley et al. (2015) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noori et al. (2017) </t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>St1 @ 2.1 (km)</t>
   </si>
   <si>
@@ -449,6 +434,27 @@
   </si>
   <si>
     <t>Observed Concentration [ppm] using formula2</t>
+  </si>
+  <si>
+    <t>Choose From References</t>
+  </si>
+  <si>
+    <t>Li et al (1998)</t>
+  </si>
+  <si>
+    <t>Li et al 2 (1998)</t>
+  </si>
+  <si>
+    <t>Deng et al (2001)</t>
+  </si>
+  <si>
+    <t>Disley et al (2015)</t>
+  </si>
+  <si>
+    <t>Noori et al (2017)</t>
+  </si>
+  <si>
+    <t>None Dispersive Model</t>
   </si>
 </sst>
 </file>
@@ -4713,7 +4719,7 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4877,7 +4883,7 @@
       </c>
       <c r="B6" s="51" t="str">
         <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
-        <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\archived modeled files\Severn River\Raw and un-modeled excel files to be run by WATUM\</v>
+        <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4961,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="53">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4991,7 +4997,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="53">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5021,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5052,7 +5058,7 @@
       </c>
       <c r="B12" s="53">
         <f>Delta_X__meters</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -7095,9 +7101,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" error="LDC is not permitted to be blanked">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="LDC is not permitted to be blanked">
           <x14:formula1>
-            <xm:f>'hidden tab'!$A$1:$A$10</xm:f>
+            <xm:f>'hidden tab'!$N$1:$N$21</xm:f>
           </x14:formula1>
           <xm:sqref>B11</xm:sqref>
         </x14:dataValidation>
@@ -7282,15 +7288,15 @@
         <v>82</v>
       </c>
       <c r="AO1" s="104" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AP1" s="104" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="76">
         <v>0</v>
@@ -7374,11 +7380,11 @@
       </c>
       <c r="AB2" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>3.5</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="AD2" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
@@ -7386,7 +7392,7 @@
       </c>
       <c r="AE2" s="80">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7406,7 +7412,7 @@
       </c>
       <c r="AJ2" s="80">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>485.17318473479997</v>
+        <v>525.60428346269998</v>
       </c>
       <c r="AK2" s="80">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7433,7 +7439,7 @@
     </row>
     <row r="3" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B3" s="76">
         <f>C2</f>
@@ -7518,19 +7524,19 @@
       </c>
       <c r="AB3" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>19.583333333333332</v>
+        <v>18.076923076923077</v>
       </c>
       <c r="AD3" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>3.5</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="AE3" s="80">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF3" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7550,7 +7556,7 @@
       </c>
       <c r="AJ3" s="80">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>406.6923060318</v>
+        <v>440.58333153445</v>
       </c>
       <c r="AK3" s="80">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7568,7 +7574,7 @@
       </c>
       <c r="AO3" s="105">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP3" s="105">
         <f>((1/1000000)*[1]!Table1[[#This Row],[Cup]]*[1]!Table1[[#This Row],[R ratio]]*[1]!Table1[[#This Row],[Inj Mass]])/[1]!Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7577,7 +7583,7 @@
     </row>
     <row r="4" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4" s="76">
         <f t="shared" ref="B4:B8" si="2">C3</f>
@@ -7662,19 +7668,19 @@
       </c>
       <c r="AB4" s="89">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AC4" s="89">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>47.916666666666664</v>
+        <v>44.230769230769234</v>
       </c>
       <c r="AD4" s="89">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>19.583333333333332</v>
+        <v>18.076923076923077</v>
       </c>
       <c r="AE4" s="80">
         <f>Delta_T__seconds</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7694,7 +7700,7 @@
       </c>
       <c r="AJ4" s="88">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>570.05166895799994</v>
+        <v>617.55597470449993</v>
       </c>
       <c r="AK4" s="88">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7708,7 +7714,7 @@
       <c r="AN4" s="80"/>
       <c r="AO4" s="105">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AP4" s="105">
         <f>((1/1000000)*[1]!Table1[[#This Row],[Cup]]*[1]!Table1[[#This Row],[R ratio]]*[1]!Table1[[#This Row],[Inj Mass]])/[1]!Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7717,7 +7723,7 @@
     </row>
     <row r="5" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" s="76">
         <f t="shared" si="2"/>
@@ -7802,19 +7808,19 @@
       </c>
       <c r="AB5" s="89">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="AC5" s="89">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>87.916666666666671</v>
+        <v>81.15384615384616</v>
       </c>
       <c r="AD5" s="89">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>47.916666666666664</v>
+        <v>44.230769230769234</v>
       </c>
       <c r="AE5" s="80">
         <f>Delta_T__seconds</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7834,7 +7840,7 @@
       </c>
       <c r="AJ5" s="88">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>665.15306118480009</v>
+        <v>720.58248295020007</v>
       </c>
       <c r="AK5" s="88">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7848,7 +7854,7 @@
       <c r="AN5" s="80"/>
       <c r="AO5" s="105">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AP5" s="105">
         <f>((1/1000000)*[1]!Table1[[#This Row],[Cup]]*[1]!Table1[[#This Row],[R ratio]]*[1]!Table1[[#This Row],[Inj Mass]])/[1]!Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7857,7 +7863,7 @@
     </row>
     <row r="6" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" s="76">
         <f t="shared" si="2"/>
@@ -7942,19 +7948,19 @@
       </c>
       <c r="AB6" s="89">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="AC6" s="89">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>129.58333333333334</v>
+        <v>119.61538461538461</v>
       </c>
       <c r="AD6" s="89">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>87.916666666666671</v>
+        <v>81.15384615384616</v>
       </c>
       <c r="AE6" s="80">
         <f>Delta_T__seconds</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF6" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7974,7 +7980,7 @@
       </c>
       <c r="AJ6" s="88">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>1105.8344561772001</v>
+        <v>1197.9873275253001</v>
       </c>
       <c r="AK6" s="88">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7988,7 +7994,7 @@
       <c r="AN6" s="80"/>
       <c r="AO6" s="105">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AP6" s="105">
         <f>((1/1000000)*[1]!Table1[[#This Row],[Cup]]*[1]!Table1[[#This Row],[R ratio]]*[1]!Table1[[#This Row],[Inj Mass]])/[1]!Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7997,7 +8003,7 @@
     </row>
     <row r="7" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7" s="76">
         <f t="shared" si="2"/>
@@ -8082,19 +8088,19 @@
       </c>
       <c r="AB7" s="89">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="AC7" s="89">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>171.25</v>
+        <v>158.07692307692307</v>
       </c>
       <c r="AD7" s="89">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>129.58333333333334</v>
+        <v>119.61538461538461</v>
       </c>
       <c r="AE7" s="80">
         <f>Delta_T__seconds</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF7" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8114,7 +8120,7 @@
       </c>
       <c r="AJ7" s="88">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>787.92385421159997</v>
+        <v>853.58417539589993</v>
       </c>
       <c r="AK7" s="88">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8128,7 +8134,7 @@
       <c r="AN7" s="80"/>
       <c r="AO7" s="105">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AP7" s="105">
         <f>((1/1000000)*[1]!Table1[[#This Row],[Cup]]*[1]!Table1[[#This Row],[R ratio]]*[1]!Table1[[#This Row],[Inj Mass]])/[1]!Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8137,7 +8143,7 @@
     </row>
     <row r="8" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" s="76">
         <f t="shared" si="2"/>
@@ -8222,19 +8228,19 @@
       </c>
       <c r="AB8" s="89">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>672</v>
+        <v>588</v>
       </c>
       <c r="AC8" s="89">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>229.58333333333334</v>
+        <v>211.92307692307693</v>
       </c>
       <c r="AD8" s="89">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>171.25</v>
+        <v>158.07692307692307</v>
       </c>
       <c r="AE8" s="80">
         <f>Delta_T__seconds</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="81">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8254,7 +8260,7 @@
       </c>
       <c r="AJ8" s="88">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>883.62973550519985</v>
+        <v>957.26554679729986</v>
       </c>
       <c r="AK8" s="88">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8268,7 +8274,7 @@
       <c r="AN8" s="80"/>
       <c r="AO8" s="105">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="AP8" s="105">
         <f>((1/1000000)*[1]!Table1[[#This Row],[Cup]]*[1]!Table1[[#This Row],[R ratio]]*[1]!Table1[[#This Row],[Inj Mass]])/[1]!Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8500,8 +8506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8518,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="N1" s="63" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8617,7 +8623,7 @@
         <v>300</v>
       </c>
       <c r="N10" s="65" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -8625,7 +8631,7 @@
         <v>350</v>
       </c>
       <c r="N11" s="65" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -8633,7 +8639,7 @@
         <v>400</v>
       </c>
       <c r="N12" s="65" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -8641,7 +8647,7 @@
         <v>450</v>
       </c>
       <c r="N13" s="65" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8649,7 +8655,7 @@
         <v>500</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -8657,7 +8663,7 @@
         <v>550</v>
       </c>
       <c r="N15" s="65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8665,7 +8671,7 @@
         <v>600</v>
       </c>
       <c r="N16" s="65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="8:14" x14ac:dyDescent="0.25">
@@ -8673,7 +8679,7 @@
         <v>650</v>
       </c>
       <c r="N17" s="65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="8:14" x14ac:dyDescent="0.25">
@@ -8681,7 +8687,7 @@
         <v>700</v>
       </c>
       <c r="N18" s="65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="8:14" x14ac:dyDescent="0.25">
@@ -8689,7 +8695,7 @@
         <v>750</v>
       </c>
       <c r="N19" s="65" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="8:14" x14ac:dyDescent="0.25">
@@ -8697,12 +8703,15 @@
         <v>800</v>
       </c>
       <c r="N20" s="66" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>900</v>
+      </c>
+      <c r="N21" s="66" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.25">
@@ -8752,7 +8761,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="A2" sqref="A2:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8788,131 +8797,238 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.31322849740396147</v>
+        <v>0.68015664268852827</v>
       </c>
       <c r="B2">
-        <v>36.525382552168367</v>
+        <v>28625.050200190482</v>
       </c>
       <c r="C2">
-        <v>32.534000789767745</v>
+        <v>7.5719455818316364E-2</v>
       </c>
       <c r="D2">
-        <v>33.417506117698331</v>
+        <v>14.381730614658528</v>
       </c>
       <c r="E2">
-        <v>38.84840735065351</v>
+        <v>8397713719.6893826</v>
       </c>
       <c r="F2">
-        <v>23.277590695310806</v>
+        <v>16659637699.36138</v>
       </c>
       <c r="G2">
-        <v>34.811568463568335</v>
+        <v>53.346954629423969</v>
       </c>
       <c r="H2">
-        <v>32.643688089241856</v>
+        <v>24.944368285190407</v>
       </c>
       <c r="I2">
-        <v>20.812053037658316</v>
+        <v>8.9633660700929063</v>
+      </c>
+      <c r="J2">
+        <v>1.7314104976385134</v>
+      </c>
+      <c r="K2">
+        <v>27.52928439270714</v>
+      </c>
+      <c r="L2">
+        <v>15.313694228549927</v>
+      </c>
+      <c r="M2">
+        <v>41.108331001401368</v>
+      </c>
+      <c r="N2">
+        <v>27.453400050271661</v>
+      </c>
+      <c r="O2">
+        <v>5.4214850129549559</v>
+      </c>
+      <c r="P2">
+        <v>35.884936034862996</v>
+      </c>
+      <c r="Q2">
+        <v>9.014130288461315</v>
+      </c>
+      <c r="R2">
+        <v>21.676550151409781</v>
+      </c>
+      <c r="S2">
+        <v>13.942155495606716</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.26698111766955995</v>
+        <v>0.31322849740396147</v>
       </c>
       <c r="B3">
-        <v>33.390806589551822</v>
+        <v>68852.677170974173</v>
       </c>
       <c r="C3">
-        <v>14.03880466851562</v>
+        <v>0.12293688374554616</v>
       </c>
       <c r="D3">
-        <v>43.206819882737427</v>
+        <v>36.525382552168367</v>
       </c>
       <c r="E3">
-        <v>45.241875502440102</v>
+        <v>1191998690413.3914</v>
       </c>
       <c r="F3">
-        <v>41.63305266191491</v>
+        <v>1694556080269.5063</v>
       </c>
       <c r="G3">
-        <v>35.359440679528277</v>
+        <v>32.534000789767745</v>
       </c>
       <c r="H3">
-        <v>31.962756249979922</v>
+        <v>33.417506117698331</v>
       </c>
       <c r="I3">
-        <v>23.866176447391744</v>
+        <v>11.715853656867665</v>
+      </c>
+      <c r="J3">
+        <v>1.0141777360050148</v>
+      </c>
+      <c r="K3">
+        <v>38.84840735065351</v>
+      </c>
+      <c r="L3">
+        <v>23.277590695310806</v>
+      </c>
+      <c r="M3">
+        <v>116.47353178631496</v>
+      </c>
+      <c r="N3">
+        <v>34.811568463568335</v>
+      </c>
+      <c r="O3">
+        <v>10.147704164784699</v>
+      </c>
+      <c r="P3">
+        <v>32.643688089241856</v>
+      </c>
+      <c r="Q3">
+        <v>5.1609111854629521</v>
+      </c>
+      <c r="R3">
+        <v>20.812053037658316</v>
+      </c>
+      <c r="S3">
+        <v>16.388113959583489</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.35933783316164253</v>
+        <v>0.26698111766955995</v>
       </c>
       <c r="B4">
-        <v>20.372935049446575</v>
+        <v>39274.013348111286</v>
       </c>
       <c r="C4">
-        <v>18.624112795831529</v>
+        <v>0.29774150721407944</v>
       </c>
       <c r="D4">
-        <v>33.314135015728112</v>
+        <v>33.390806589551822</v>
       </c>
       <c r="E4">
-        <v>35.177546386489475</v>
+        <v>12738920.171506403</v>
       </c>
       <c r="F4">
-        <v>28.096184267128709</v>
+        <v>14182975.825430201</v>
       </c>
       <c r="G4">
-        <v>29.10676961852668</v>
+        <v>14.03880466851562</v>
       </c>
       <c r="H4">
-        <v>30.806528017469848</v>
+        <v>43.206819882737427</v>
       </c>
       <c r="I4">
-        <v>23.551261448561682</v>
-      </c>
-      <c r="L4" s="25"/>
+        <v>9.9525069786968974</v>
+      </c>
+      <c r="J4">
+        <v>0.48228789072402922</v>
+      </c>
+      <c r="K4">
+        <v>45.241875502440102</v>
+      </c>
+      <c r="L4" s="25">
+        <v>41.63305266191491</v>
+      </c>
+      <c r="M4">
+        <v>276.74217753538369</v>
+      </c>
+      <c r="N4">
+        <v>35.359440679528277</v>
+      </c>
+      <c r="O4">
+        <v>65535</v>
+      </c>
+      <c r="P4">
+        <v>31.962756249979922</v>
+      </c>
+      <c r="Q4">
+        <v>3.4118064406572564</v>
+      </c>
+      <c r="R4">
+        <v>23.866176447391744</v>
+      </c>
+      <c r="S4">
+        <v>15.377687775050815</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.34387364708602081</v>
+        <v>0.35933783316164253</v>
       </c>
       <c r="B5">
-        <v>77.369606165605788</v>
+        <v>64026.44107621452</v>
       </c>
       <c r="C5">
-        <v>62.363966507937029</v>
+        <v>0.2196960007178472</v>
       </c>
       <c r="D5">
-        <v>43.443566400056703</v>
+        <v>20.372935049446575</v>
       </c>
       <c r="E5">
-        <v>51.712553908003869</v>
+        <v>11660815.389813524</v>
       </c>
       <c r="F5">
-        <v>26.791796370902254</v>
+        <v>15746001.233835166</v>
       </c>
       <c r="G5">
-        <v>51.744233499347608</v>
+        <v>18.624112795831529</v>
       </c>
       <c r="H5">
-        <v>43.34296430768245</v>
+        <v>33.314135015728112</v>
       </c>
       <c r="I5">
-        <v>33.465758842333642</v>
+        <v>8.3248995491209179</v>
+      </c>
+      <c r="J5">
+        <v>0.62146782257943423</v>
+      </c>
+      <c r="K5">
+        <v>35.177546386489475</v>
+      </c>
+      <c r="L5">
+        <v>28.096184267128709</v>
+      </c>
+      <c r="M5">
+        <v>131.99859525068348</v>
+      </c>
+      <c r="N5">
+        <v>29.10676961852668</v>
+      </c>
+      <c r="O5">
+        <v>149551654.81536677</v>
       </c>
       <c r="P5" s="39">
-        <v>0.68029399999999995</v>
+        <v>30.806528017469848</v>
       </c>
       <c r="Q5" s="39">
-        <v>14.36734</v>
+        <v>4.3379828015827844</v>
       </c>
       <c r="R5" s="39">
-        <v>53.357640000000004</v>
+        <v>23.551261448561682</v>
       </c>
       <c r="S5" s="39">
-        <v>24.927990000000001</v>
+        <v>13.278955923320112</v>
       </c>
       <c r="T5" s="39">
         <v>27.509250000000002</v>
@@ -8932,43 +9048,61 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.33506683054146424</v>
+        <v>0.34387364708602081</v>
       </c>
       <c r="B6">
-        <v>60.174042250514447</v>
+        <v>9147441664.3559856</v>
       </c>
       <c r="C6">
-        <v>70.772994369132917</v>
+        <v>0.16127039307728611</v>
       </c>
       <c r="D6">
-        <v>33.197199515206243</v>
+        <v>77.369606165605788</v>
       </c>
       <c r="E6">
-        <v>41.144595726212735</v>
+        <v>1.9290048029375352E+18</v>
       </c>
       <c r="F6">
-        <v>18.926217222075252</v>
+        <v>2.801819736520597E+18</v>
       </c>
       <c r="G6">
-        <v>42.521834635580191</v>
+        <v>62.363966507937029</v>
       </c>
       <c r="H6">
-        <v>37.450196851082339</v>
+        <v>43.443566400056703</v>
       </c>
       <c r="I6">
-        <v>27.08994181247148</v>
+        <v>19.802115942320338</v>
+      </c>
+      <c r="J6">
+        <v>1.4626982397490671</v>
+      </c>
+      <c r="K6">
+        <v>51.712553908003869</v>
+      </c>
+      <c r="L6">
+        <v>26.791796370902254</v>
+      </c>
+      <c r="M6">
+        <v>141.35315939797886</v>
+      </c>
+      <c r="N6">
+        <v>51.744233499347608</v>
+      </c>
+      <c r="O6">
+        <v>18.279787512399285</v>
       </c>
       <c r="P6" s="39">
-        <v>0.31323899999999999</v>
+        <v>43.34296430768245</v>
       </c>
       <c r="Q6" s="39">
-        <v>24.631589999999999</v>
+        <v>7.3080205694117195</v>
       </c>
       <c r="R6" s="39">
-        <v>32.5351</v>
+        <v>33.465758842333642</v>
       </c>
       <c r="S6" s="39">
-        <v>25.22383</v>
+        <v>24.85729790564373</v>
       </c>
       <c r="T6" s="39">
         <v>29.80743</v>
@@ -8988,43 +9122,61 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.45280611092443795</v>
+        <v>0.33506683054146424</v>
       </c>
       <c r="B7">
-        <v>27.460498428617271</v>
+        <v>621158150.54461765</v>
       </c>
       <c r="C7">
-        <v>35.458238134848095</v>
+        <v>0.10442477316346464</v>
       </c>
       <c r="D7">
-        <v>35.26734159215561</v>
+        <v>60.174042250514447</v>
       </c>
       <c r="E7">
-        <v>39.998500617030622</v>
+        <v>2.2739472572257246E+20</v>
       </c>
       <c r="F7">
-        <v>25.0441175460994</v>
+        <v>3.6764427167066312E+20</v>
       </c>
       <c r="G7">
-        <v>35.320773438636586</v>
+        <v>70.772994369132917</v>
       </c>
       <c r="H7">
-        <v>37.394201405106315</v>
+        <v>33.197199515206243</v>
       </c>
       <c r="I7">
-        <v>28.194582095621172</v>
+        <v>17.026340576566227</v>
+      </c>
+      <c r="J7">
+        <v>1.6960669498047289</v>
+      </c>
+      <c r="K7">
+        <v>41.144595726212735</v>
+      </c>
+      <c r="L7">
+        <v>18.926217222075252</v>
+      </c>
+      <c r="M7">
+        <v>84.482643114858618</v>
+      </c>
+      <c r="N7">
+        <v>42.521834635580191</v>
+      </c>
+      <c r="O7">
+        <v>1.3901698702784904</v>
       </c>
       <c r="P7" s="39">
-        <v>0.26703500000000002</v>
+        <v>37.450196851082339</v>
       </c>
       <c r="Q7" s="39">
-        <v>11.671760000000001</v>
+        <v>7.4357658243047737</v>
       </c>
       <c r="R7" s="39">
-        <v>14.04162</v>
+        <v>27.08994181247148</v>
       </c>
       <c r="S7" s="39">
-        <v>20.40061</v>
+        <v>21.067085368232753</v>
       </c>
       <c r="T7" s="39">
         <v>21.494890000000002</v>
@@ -9043,17 +9195,62 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.45280611092443795</v>
+      </c>
+      <c r="B8">
+        <v>2723227.9512344319</v>
+      </c>
+      <c r="C8">
+        <v>0.17333530579880232</v>
+      </c>
+      <c r="D8">
+        <v>27.460498428617271</v>
+      </c>
+      <c r="E8">
+        <v>7078511204.2171917</v>
+      </c>
+      <c r="F8">
+        <v>10784896704.219383</v>
+      </c>
+      <c r="G8">
+        <v>35.458238134848095</v>
+      </c>
+      <c r="H8">
+        <v>35.26734159215561</v>
+      </c>
+      <c r="I8">
+        <v>11.227535573950105</v>
+      </c>
+      <c r="J8">
+        <v>1.0291592446967921</v>
+      </c>
+      <c r="K8">
+        <v>39.998500617030622</v>
+      </c>
+      <c r="L8">
+        <v>25.0441175460994</v>
+      </c>
+      <c r="M8">
+        <v>103.21750311087098</v>
+      </c>
+      <c r="N8">
+        <v>35.320773438636586</v>
+      </c>
+      <c r="O8">
+        <v>-6.9202824218865526</v>
+      </c>
       <c r="P8" s="39">
-        <v>0.35930200000000001</v>
+        <v>37.394201405106315</v>
       </c>
       <c r="Q8" s="39">
-        <v>4.2178009999999997</v>
+        <v>6.422533260982461</v>
       </c>
       <c r="R8" s="39">
-        <v>18.622250000000001</v>
+        <v>28.194582095621172</v>
       </c>
       <c r="S8" s="39">
-        <v>10.8209</v>
+        <v>16.791435597158287</v>
       </c>
       <c r="T8" s="39">
         <v>10.4069</v>
@@ -9072,17 +9269,62 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P9" s="39">
-        <v>0.34387400000000001</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>7.9991050000000001</v>
-      </c>
-      <c r="R9" s="39">
-        <v>62.363979999999998</v>
-      </c>
-      <c r="S9" s="39">
-        <v>8.5952439999999992</v>
+      <c r="A9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" s="39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T9" s="39">
         <v>11.201169999999999</v>

--- a/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_1998_Seo_and_Cheong_paper02_severn.xlsx
+++ b/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_1998_Seo_and_Cheong_paper02_severn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -4718,7 +4718,7 @@
   </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B2" s="50" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>Dx_1998_Seo_and_Cheong_paper02_severn.xlsx</v>
+        <v>Dx_2002_Kashefipour_and_Falconer_Paper02_Severn.xlsx</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7166,7 +7166,7 @@
     <col min="43" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8506,8 +8506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
